--- a/ObjectTracking/Evaluation.xlsx
+++ b/ObjectTracking/Evaluation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>L11_1_59</t>
   </si>
@@ -33,27 +33,15 @@
     <t>L6_1_52</t>
   </si>
   <si>
-    <t>L21_3_67</t>
-  </si>
-  <si>
-    <t>L10_0_52</t>
-  </si>
-  <si>
     <t>L17_1_57</t>
   </si>
   <si>
     <t>L11_0_61</t>
   </si>
   <si>
-    <t>L19_1_57</t>
-  </si>
-  <si>
     <t>Accuray</t>
   </si>
   <si>
-    <t>L14_1_49</t>
-  </si>
-  <si>
     <t>L9_1_55</t>
   </si>
   <si>
@@ -61,6 +49,21 @@
   </si>
   <si>
     <t>L7_1_54</t>
+  </si>
+  <si>
+    <t>Stationary</t>
+  </si>
+  <si>
+    <t>L10_4_52</t>
+  </si>
+  <si>
+    <t>L1_0_58</t>
+  </si>
+  <si>
+    <t>L4_1_51</t>
+  </si>
+  <si>
+    <t>L13_1_62</t>
   </si>
 </sst>
 </file>
@@ -399,279 +402,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
         <v>42</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
       <c r="E2">
-        <f xml:space="preserve"> 1 - D2 / (B2 -C2)</f>
-        <v>0.95121951219512191</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <f xml:space="preserve"> 1 - E2 / (C2 -B2)</f>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="G2">
         <v>12</v>
       </c>
-      <c r="G2">
-        <f xml:space="preserve"> 1- F2/(B2 - C2)</f>
-        <v>0.70731707317073167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f xml:space="preserve"> 1- G2/(C2 - B2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>22</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
-        <f xml:space="preserve"> 1 - D3 / (B3 -C3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f xml:space="preserve"> 1 - E3 / (C3 -B3)</f>
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <f xml:space="preserve"> 1- F3/(B3 - C3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f xml:space="preserve"> 1- G3/(C3 - B3)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <f xml:space="preserve"> 1 - D4 / (B4 -C4)</f>
-        <v>0.92592592592592593</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <f xml:space="preserve"> 1 - E4 / (C4 -B4)</f>
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <f xml:space="preserve"> 1- G4/(C4 - B4)</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f xml:space="preserve"> 1 - E5 / (C5 -B5)</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H11" si="0" xml:space="preserve"> 1- G5/(C5 - B5)</f>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <f xml:space="preserve"> 1 - E6 / (C6 -B6)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.41176470588235292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f xml:space="preserve"> 1 - E7 / (C7 -B7)</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
         <v>16</v>
       </c>
-      <c r="G4">
-        <f xml:space="preserve"> 1- F4/(B4 - C4)</f>
-        <v>0.70370370370370372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f xml:space="preserve"> 1 - E8 / (C8 -B8)</f>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f xml:space="preserve"> 1 - E9 / (C9 -B9)</f>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>32</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f xml:space="preserve"> 1 - E10 / (C10 -B10)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <f xml:space="preserve"> 1 - D5 / (B5 -C5)</f>
-        <v>0.93103448275862066</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <f xml:space="preserve"> 1- F5/(B5 - C5)</f>
-        <v>0.89655172413793105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>45</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <f xml:space="preserve"> 1 - E11 / (C11 -B11)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="E6">
-        <f xml:space="preserve"> 1 - D6 / (B6 -C6)</f>
-        <v>0.91111111111111109</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <f xml:space="preserve"> 1- F6/(B6 - C6)</f>
-        <v>0.77777777777777779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>45</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f xml:space="preserve"> 1 - D7 / (B7 -C7)</f>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <f xml:space="preserve"> 1- F7/(B7 - C7)</f>
-        <v>0.95121951219512191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f xml:space="preserve"> 1 - D8 / (B8 -C8)</f>
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <f xml:space="preserve"> 1- F8/(B8 - C8)</f>
-        <v>0.91666666666666663</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f xml:space="preserve"> 1 - D9 / (B9 -C9)</f>
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f xml:space="preserve"> 1- F9/(B9 - C9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <f xml:space="preserve"> 1 - D10 / (B10 -C10)</f>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <f xml:space="preserve"> 1- F10/(B10 - C10)</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <f xml:space="preserve"> 1 - D11 / (B11 -C11)</f>
-        <v>0.92592592592592593</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <f xml:space="preserve"> 1- F11/(B11 - C11)</f>
-        <v>0.85185185185185186</v>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.4285714285714286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f>AVERAGE(F2:F11)</f>
+        <v>0.8819589887236946</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGE(H2:H11)</f>
+        <v>0.46676865618042085</v>
       </c>
     </row>
   </sheetData>

--- a/ObjectTracking/Evaluation.xlsx
+++ b/ObjectTracking/Evaluation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>L11_1_59</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>L13_1_62</t>
+  </si>
+  <si>
+    <t>Taccuracy_QSR</t>
   </si>
 </sst>
 </file>
@@ -402,18 +405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -432,8 +436,11 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -450,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <f xml:space="preserve"> 1 - E2 / (C2 -B2)</f>
+        <f t="shared" ref="F2:F11" si="0" xml:space="preserve"> 1 - E2 / (C2 -B2)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="G2">
@@ -460,8 +467,16 @@
         <f xml:space="preserve"> 1- G2/(C2 - B2)</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>1 - E2/C2</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="J2">
+        <f xml:space="preserve"> 1 - G2/C2</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -478,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f xml:space="preserve"> 1 - E3 / (C3 -B3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G3">
@@ -488,8 +503,16 @@
         <f xml:space="preserve"> 1- G3/(C3 - B3)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f t="shared" ref="I3:I12" si="1">1 - E3/C3</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f xml:space="preserve"> 1 - G3/C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -506,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <f xml:space="preserve"> 1 - E4 / (C4 -B4)</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="G4">
@@ -516,8 +539,16 @@
         <f xml:space="preserve"> 1- G4/(C4 - B4)</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="J4">
+        <f xml:space="preserve"> 1 - G4/C4</f>
+        <v>0.82352941176470584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -534,18 +565,26 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <f xml:space="preserve"> 1 - E5 / (C5 -B5)</f>
+        <f t="shared" si="0"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H11" si="0" xml:space="preserve"> 1- G5/(C5 - B5)</f>
+        <f t="shared" ref="H5:H11" si="2" xml:space="preserve"> 1- G5/(C5 - B5)</f>
         <v>0.53846153846153844</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="J5">
+        <f xml:space="preserve"> 1 - G5/C5</f>
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -562,18 +601,26 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f xml:space="preserve"> 1 - E6 / (C6 -B6)</f>
+        <f t="shared" si="0"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="G6">
         <v>10</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.41176470588235292</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="J6">
+        <f xml:space="preserve"> 1 - G6/C6</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -590,18 +637,26 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f xml:space="preserve"> 1 - E7 / (C7 -B7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f xml:space="preserve"> 1 - G7/C7</f>
+        <v>0.9555555555555556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -618,18 +673,26 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f xml:space="preserve"> 1 - E8 / (C8 -B8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8">
         <v>2</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f xml:space="preserve"> 1 - G8/C8</f>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -646,18 +709,26 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f xml:space="preserve"> 1 - E9 / (C9 -B9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.55555555555555558</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f xml:space="preserve"> 1 - G9/C9</f>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -674,18 +745,26 @@
         <v>2</v>
       </c>
       <c r="F10">
-        <f xml:space="preserve"> 1 - E10 / (C10 -B10)</f>
+        <f t="shared" si="0"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.33333333333333337</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.9375</v>
+      </c>
+      <c r="J10">
+        <f xml:space="preserve"> 1 - G10/C10</f>
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -702,18 +781,26 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <f xml:space="preserve"> 1 - E11 / (C11 -B11)</f>
+        <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.4285714285714286</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="J11">
+        <f xml:space="preserve"> 1 - G11/C11</f>
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F12">
         <f>AVERAGE(F2:F11)</f>
         <v>0.8819589887236946</v>
@@ -721,6 +808,14 @@
       <c r="H12">
         <f>AVERAGE(H2:H11)</f>
         <v>0.46676865618042085</v>
+      </c>
+      <c r="I12">
+        <f>I4</f>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="J12">
+        <f>AVERAGE(J2:J11)</f>
+        <v>0.82142875571281149</v>
       </c>
     </row>
   </sheetData>
